--- a/NformTester/NformTester/Keywordscripts/600.20.30.200_VerifyThatSiteIdUsedInEmailAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.200_VerifyThatSiteIdUsedInEmailAction.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7675" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7711" uniqueCount="837">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3984,7 +3984,21 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4709,10 +4723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O150"/>
+  <dimension ref="A1:O159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4925,7 +4939,7 @@
         <v>756</v>
       </c>
       <c r="B7" s="3">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -7043,16 +7057,22 @@
       <c r="N83" s="16"/>
       <c r="O83" s="11"/>
     </row>
-    <row r="84" spans="3:15" ht="15">
+    <row r="84" spans="3:15">
       <c r="C84" s="4">
         <v>83</v>
       </c>
-      <c r="D84" s="13" t="s">
-        <v>823</v>
-      </c>
-      <c r="E84" s="12"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
+      <c r="D84" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
@@ -7069,18 +7089,16 @@
       <c r="D85" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="E85" s="12" t="s">
-        <v>300</v>
+      <c r="E85" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>303</v>
+        <v>22</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H85" s="12" t="s">
-        <v>816</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
@@ -7096,11 +7114,11 @@
       <c r="D86" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="E86" s="12" t="s">
-        <v>300</v>
+      <c r="E86" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>2</v>
@@ -7114,25 +7132,17 @@
       <c r="N86" s="17"/>
       <c r="O86" s="11"/>
     </row>
-    <row r="87" spans="3:15">
+    <row r="87" spans="3:15" ht="15">
       <c r="C87" s="4">
         <v>86</v>
       </c>
-      <c r="D87" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="H87" s="12" t="s">
-        <v>817</v>
-      </c>
+      <c r="D87" s="13" t="s">
+        <v>823</v>
+      </c>
+      <c r="E87" s="12"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -7146,24 +7156,26 @@
         <v>87</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>95</v>
+        <v>303</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H88" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>816</v>
+      </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
-      <c r="N88" s="16"/>
+      <c r="N88" s="17"/>
       <c r="O88" s="11"/>
     </row>
     <row r="89" spans="3:15">
@@ -7171,38 +7183,46 @@
         <v>88</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>300</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
-      <c r="N89" s="16"/>
+      <c r="N89" s="17"/>
       <c r="O89" s="11"/>
     </row>
-    <row r="90" spans="3:15" ht="15">
+    <row r="90" spans="3:15">
       <c r="C90" s="4">
         <v>89</v>
       </c>
-      <c r="D90" s="13" t="s">
-        <v>825</v>
-      </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
+      <c r="D90" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
@@ -7215,13 +7235,13 @@
         <v>90</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>19</v>
+        <v>805</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>2</v>
@@ -7232,7 +7252,7 @@
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
-      <c r="N91" s="17"/>
+      <c r="N91" s="16"/>
       <c r="O91" s="11"/>
     </row>
     <row r="92" spans="3:15">
@@ -7240,51 +7260,43 @@
         <v>91</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>19</v>
+        <v>805</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
-      <c r="N92" s="17"/>
+      <c r="N92" s="16"/>
       <c r="O92" s="11"/>
     </row>
-    <row r="93" spans="3:15">
+    <row r="93" spans="3:15" ht="15">
       <c r="C93" s="4">
         <v>92</v>
       </c>
-      <c r="D93" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H93" s="12" t="s">
-        <v>816</v>
-      </c>
-      <c r="I93" s="4"/>
+      <c r="D93" s="13" t="s">
+        <v>825</v>
+      </c>
+      <c r="E93" s="12"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
-      <c r="N93" s="17"/>
+      <c r="N93" s="16"/>
       <c r="O93" s="11"/>
     </row>
     <row r="94" spans="3:15">
@@ -7294,17 +7306,17 @@
       <c r="D94" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="E94" s="12" t="s">
-        <v>300</v>
+      <c r="E94" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
@@ -7317,26 +7329,24 @@
         <v>94</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>304</v>
+        <v>793</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>309</v>
+        <v>75</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H95" s="12" t="s">
-        <v>817</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
-      <c r="N95" s="16"/>
+      <c r="N95" s="17"/>
       <c r="O95" s="11"/>
     </row>
     <row r="96" spans="3:15">
@@ -7344,24 +7354,26 @@
         <v>95</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>168</v>
+        <v>303</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H96" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>816</v>
+      </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
-      <c r="N96" s="16"/>
+      <c r="N96" s="17"/>
       <c r="O96" s="11"/>
     </row>
     <row r="97" spans="3:15">
@@ -7369,26 +7381,24 @@
         <v>96</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>249</v>
+        <v>168</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H97" s="12" t="s">
-        <v>815</v>
-      </c>
-      <c r="I97" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
-      <c r="N97" s="16"/>
+      <c r="N97" s="17"/>
       <c r="O97" s="11"/>
     </row>
     <row r="98" spans="3:15">
@@ -7399,16 +7409,16 @@
         <v>805</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>812</v>
+        <v>56</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>817</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
@@ -7426,23 +7436,17 @@
         <v>805</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H99" s="12" t="s">
-        <v>811</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="J99" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H99" s="12"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
@@ -7460,12 +7464,14 @@
         <v>326</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H100" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>815</v>
+      </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
@@ -7482,15 +7488,17 @@
         <v>805</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H101" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>812</v>
+      </c>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
@@ -7499,19 +7507,31 @@
       <c r="N101" s="16"/>
       <c r="O101" s="11"/>
     </row>
-    <row r="102" spans="3:15" ht="15">
+    <row r="102" spans="3:15">
       <c r="C102" s="4">
         <v>101</v>
       </c>
-      <c r="D102" s="13" t="s">
-        <v>826</v>
-      </c>
-      <c r="E102" s="12"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
+      <c r="D102" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="J102" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
@@ -7523,26 +7543,24 @@
         <v>102</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>303</v>
+        <v>17</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H103" s="12" t="s">
-        <v>816</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" s="12"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
-      <c r="N103" s="17"/>
+      <c r="N103" s="16"/>
       <c r="O103" s="11"/>
     </row>
     <row r="104" spans="3:15">
@@ -7550,45 +7568,37 @@
         <v>103</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
+      <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
-      <c r="N104" s="17"/>
+      <c r="N104" s="16"/>
       <c r="O104" s="11"/>
     </row>
-    <row r="105" spans="3:15">
+    <row r="105" spans="3:15" ht="15">
       <c r="C105" s="4">
         <v>104</v>
       </c>
-      <c r="D105" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H105" s="12" t="s">
-        <v>817</v>
-      </c>
+      <c r="D105" s="13" t="s">
+        <v>826</v>
+      </c>
+      <c r="E105" s="12"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="12"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
@@ -7605,15 +7615,15 @@
         <v>805</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H106" s="12"/>
+      <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
@@ -7627,30 +7637,24 @@
         <v>106</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>326</v>
+        <v>793</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H107" s="12" t="s">
-        <v>813</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>814</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
-      <c r="N107" s="16"/>
+      <c r="N107" s="17"/>
       <c r="O107" s="11"/>
     </row>
     <row r="108" spans="3:15">
@@ -7658,24 +7662,24 @@
         <v>107</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>326</v>
+        <v>793</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H108" s="12"/>
+      <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
-      <c r="N108" s="16"/>
+      <c r="N108" s="17"/>
       <c r="O108" s="11"/>
     </row>
     <row r="109" spans="3:15">
@@ -7683,24 +7687,26 @@
         <v>108</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>95</v>
+        <v>303</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H109" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>816</v>
+      </c>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
-      <c r="N109" s="16"/>
+      <c r="N109" s="17"/>
       <c r="O109" s="11"/>
     </row>
     <row r="110" spans="3:15">
@@ -7708,13 +7714,13 @@
         <v>109</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>300</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>2</v>
@@ -7725,20 +7731,28 @@
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
-      <c r="N110" s="16"/>
+      <c r="N110" s="17"/>
       <c r="O110" s="11"/>
     </row>
-    <row r="111" spans="3:15" ht="15">
+    <row r="111" spans="3:15">
       <c r="C111" s="4">
         <v>110</v>
       </c>
-      <c r="D111" s="13" t="s">
-        <v>827</v>
-      </c>
-      <c r="E111" s="12"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
+      <c r="D111" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>817</v>
+      </c>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
@@ -7752,24 +7766,24 @@
         <v>111</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>19</v>
+        <v>805</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H112" s="4"/>
+      <c r="H112" s="12"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
-      <c r="N112" s="17"/>
+      <c r="N112" s="16"/>
       <c r="O112" s="11"/>
     </row>
     <row r="113" spans="3:15">
@@ -7777,24 +7791,30 @@
         <v>112</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>19</v>
+        <v>805</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>814</v>
+      </c>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
-      <c r="N113" s="17"/>
+      <c r="N113" s="16"/>
       <c r="O113" s="11"/>
     </row>
     <row r="114" spans="3:15">
@@ -7802,26 +7822,24 @@
         <v>113</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>303</v>
+        <v>109</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H114" s="12" t="s">
-        <v>816</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H114" s="12"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
-      <c r="N114" s="17"/>
+      <c r="N114" s="16"/>
       <c r="O114" s="11"/>
     </row>
     <row r="115" spans="3:15">
@@ -7829,24 +7847,24 @@
         <v>114</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
-      <c r="N115" s="17"/>
+      <c r="N115" s="16"/>
       <c r="O115" s="11"/>
     </row>
     <row r="116" spans="3:15">
@@ -7857,18 +7875,16 @@
         <v>805</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>309</v>
+        <v>95</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H116" s="12" t="s">
-        <v>817</v>
-      </c>
-      <c r="I116" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
@@ -7876,31 +7892,19 @@
       <c r="N116" s="16"/>
       <c r="O116" s="11"/>
     </row>
-    <row r="117" spans="3:15">
+    <row r="117" spans="3:15" ht="15">
       <c r="C117" s="4">
         <v>116</v>
       </c>
-      <c r="D117" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H117" s="12" t="s">
-        <v>811</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="J117" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="D117" s="13" t="s">
+        <v>827</v>
+      </c>
+      <c r="E117" s="12"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
@@ -7912,13 +7916,13 @@
         <v>117</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>304</v>
+        <v>793</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>2</v>
@@ -7929,7 +7933,7 @@
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
-      <c r="N118" s="16"/>
+      <c r="N118" s="17"/>
       <c r="O118" s="11"/>
     </row>
     <row r="119" spans="3:15">
@@ -7937,19 +7941,19 @@
         <v>118</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>591</v>
+        <v>793</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
@@ -7962,19 +7966,21 @@
         <v>119</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>591</v>
+        <v>300</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>161</v>
+        <v>303</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
@@ -7987,24 +7993,24 @@
         <v>120</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
-      <c r="N121" s="16"/>
+      <c r="N121" s="17"/>
       <c r="O121" s="11"/>
     </row>
     <row r="122" spans="3:15">
@@ -8015,16 +8021,16 @@
         <v>805</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>56</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
@@ -8042,17 +8048,23 @@
         <v>805</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>178</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="J123" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
@@ -8064,15 +8076,17 @@
         <v>123</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>786</v>
+        <v>805</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>787</v>
-      </c>
-      <c r="F124" s="4">
-        <v>5</v>
-      </c>
-      <c r="G124" s="4"/>
+        <v>304</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
@@ -8090,40 +8104,46 @@
         <v>805</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>300</v>
+        <v>591</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
-      <c r="N125" s="16"/>
+      <c r="N125" s="17"/>
       <c r="O125" s="11"/>
     </row>
-    <row r="126" spans="3:15" ht="15">
+    <row r="126" spans="3:15">
       <c r="C126" s="4">
         <v>125</v>
       </c>
-      <c r="D126" s="13" t="s">
-        <v>828</v>
-      </c>
-      <c r="E126" s="12"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
+      <c r="D126" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
-      <c r="N126" s="16"/>
+      <c r="N126" s="17"/>
       <c r="O126" s="11"/>
     </row>
     <row r="127" spans="3:15">
@@ -8133,16 +8153,16 @@
       <c r="D127" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="E127" s="4" t="s">
-        <v>19</v>
+      <c r="E127" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H127" s="12"/>
+      <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
@@ -8158,16 +8178,16 @@
       <c r="D128" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="E128" s="4" t="s">
-        <v>19</v>
+      <c r="E128" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H128" s="12"/>
+      <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
@@ -8181,24 +8201,24 @@
         <v>128</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="E129" s="12" t="s">
-        <v>389</v>
+        <v>793</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>392</v>
+        <v>22</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H129" s="12"/>
-      <c r="I129" s="12"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
-      <c r="N129" s="16"/>
+      <c r="N129" s="17"/>
       <c r="O129" s="11"/>
     </row>
     <row r="130" spans="3:15">
@@ -8206,26 +8226,24 @@
         <v>129</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="E130" s="12" t="s">
-        <v>389</v>
+        <v>793</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>435</v>
+        <v>75</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H130" s="12" t="s">
-        <v>797</v>
-      </c>
-      <c r="I130" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
-      <c r="N130" s="16"/>
+      <c r="N130" s="17"/>
       <c r="O130" s="11"/>
     </row>
     <row r="131" spans="3:15">
@@ -8236,23 +8254,19 @@
         <v>805</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>389</v>
+        <v>300</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>433</v>
+        <v>303</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>811</v>
-      </c>
-      <c r="I131" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="J131" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>816</v>
+      </c>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
       <c r="M131" s="4"/>
@@ -8267,16 +8281,16 @@
         <v>805</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>389</v>
+        <v>300</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>433</v>
+        <v>178</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
@@ -8289,17 +8303,15 @@
         <v>132</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>787</v>
+      </c>
+      <c r="F133" s="4">
+        <v>5</v>
+      </c>
+      <c r="G133" s="4"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
@@ -8309,16 +8321,22 @@
       <c r="N133" s="16"/>
       <c r="O133" s="11"/>
     </row>
-    <row r="134" spans="3:15" ht="15">
+    <row r="134" spans="3:15">
       <c r="C134" s="4">
         <v>133</v>
       </c>
-      <c r="D134" s="13" t="s">
-        <v>829</v>
-      </c>
-      <c r="E134" s="12"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
+      <c r="D134" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
@@ -8328,23 +8346,17 @@
       <c r="N134" s="16"/>
       <c r="O134" s="11"/>
     </row>
-    <row r="135" spans="3:15">
+    <row r="135" spans="3:15" ht="15">
       <c r="C135" s="4">
         <v>134</v>
       </c>
-      <c r="D135" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H135" s="12"/>
+      <c r="D135" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="E135" s="12"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
@@ -8364,7 +8376,7 @@
         <v>19</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>2</v>
@@ -8385,17 +8397,17 @@
       <c r="D137" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="E137" s="12" t="s">
-        <v>389</v>
+      <c r="E137" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>392</v>
+        <v>79</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H137" s="12"/>
-      <c r="I137" s="12"/>
+      <c r="I137" s="4"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
@@ -8414,14 +8426,12 @@
         <v>389</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>435</v>
+        <v>392</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="H138" s="12" t="s">
-        <v>797</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H138" s="12"/>
       <c r="I138" s="12"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
@@ -8431,7 +8441,9 @@
       <c r="O138" s="11"/>
     </row>
     <row r="139" spans="3:15">
-      <c r="C139" s="4"/>
+      <c r="C139" s="4">
+        <v>138</v>
+      </c>
       <c r="D139" s="14" t="s">
         <v>805</v>
       </c>
@@ -8439,13 +8451,15 @@
         <v>389</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>95</v>
+        <v>435</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H139" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="I139" s="12"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
@@ -8454,14 +8468,30 @@
       <c r="O139" s="11"/>
     </row>
     <row r="140" spans="3:15">
-      <c r="C140" s="4"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
+      <c r="C140" s="4">
+        <v>139</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H140" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="J140" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
@@ -8469,13 +8499,23 @@
       <c r="O140" s="11"/>
     </row>
     <row r="141" spans="3:15">
-      <c r="C141" s="4"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
+      <c r="C141" s="4">
+        <v>140</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
@@ -8484,11 +8524,21 @@
       <c r="O141" s="11"/>
     </row>
     <row r="142" spans="3:15">
-      <c r="C142" s="4"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
+      <c r="C142" s="4">
+        <v>141</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
@@ -8498,9 +8548,13 @@
       <c r="N142" s="16"/>
       <c r="O142" s="11"/>
     </row>
-    <row r="143" spans="3:15">
-      <c r="C143" s="4"/>
-      <c r="D143" s="14"/>
+    <row r="143" spans="3:15" ht="15">
+      <c r="C143" s="4">
+        <v>142</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>829</v>
+      </c>
       <c r="E143" s="12"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
@@ -8514,12 +8568,22 @@
       <c r="O143" s="11"/>
     </row>
     <row r="144" spans="3:15">
-      <c r="C144" s="4"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
+      <c r="C144" s="4">
+        <v>143</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H144" s="12"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
@@ -8529,12 +8593,22 @@
       <c r="O144" s="11"/>
     </row>
     <row r="145" spans="3:15">
-      <c r="C145" s="4"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
+      <c r="C145" s="4">
+        <v>144</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H145" s="12"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
@@ -8544,13 +8618,23 @@
       <c r="O145" s="11"/>
     </row>
     <row r="146" spans="3:15">
-      <c r="C146" s="4"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
+      <c r="C146" s="4">
+        <v>145</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
@@ -8559,13 +8643,25 @@
       <c r="O146" s="11"/>
     </row>
     <row r="147" spans="3:15">
-      <c r="C147" s="4"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
-      <c r="I147" s="4"/>
+      <c r="C147" s="4">
+        <v>146</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="H147" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="I147" s="12"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
@@ -8574,11 +8670,21 @@
       <c r="O147" s="11"/>
     </row>
     <row r="148" spans="3:15">
-      <c r="C148" s="4"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
+      <c r="C148" s="4">
+        <v>147</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
@@ -8604,39 +8710,174 @@
       <c r="O149" s="11"/>
     </row>
     <row r="150" spans="3:15">
+      <c r="C150" s="4"/>
       <c r="D150" s="14"/>
       <c r="E150" s="12"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
       <c r="M150" s="4"/>
       <c r="N150" s="16"/>
+      <c r="O150" s="11"/>
+    </row>
+    <row r="151" spans="3:15">
+      <c r="C151" s="4"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="16"/>
+      <c r="O151" s="11"/>
+    </row>
+    <row r="152" spans="3:15">
+      <c r="C152" s="4"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="16"/>
+      <c r="O152" s="11"/>
+    </row>
+    <row r="153" spans="3:15">
+      <c r="C153" s="4"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="16"/>
+      <c r="O153" s="11"/>
+    </row>
+    <row r="154" spans="3:15">
+      <c r="C154" s="4"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="16"/>
+      <c r="O154" s="11"/>
+    </row>
+    <row r="155" spans="3:15">
+      <c r="C155" s="4"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+      <c r="K155" s="4"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="16"/>
+      <c r="O155" s="11"/>
+    </row>
+    <row r="156" spans="3:15">
+      <c r="C156" s="4"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="4"/>
+      <c r="L156" s="4"/>
+      <c r="M156" s="4"/>
+      <c r="N156" s="16"/>
+      <c r="O156" s="11"/>
+    </row>
+    <row r="157" spans="3:15">
+      <c r="C157" s="4"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="16"/>
+      <c r="O157" s="11"/>
+    </row>
+    <row r="158" spans="3:15">
+      <c r="C158" s="4"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="16"/>
+      <c r="O158" s="11"/>
+    </row>
+    <row r="159" spans="3:15">
+      <c r="D159" s="14"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="4"/>
+      <c r="K159" s="4"/>
+      <c r="L159" s="4"/>
+      <c r="M159" s="4"/>
+      <c r="N159" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N150">
-    <cfRule type="cellIs" dxfId="1" priority="11" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N159">
+    <cfRule type="cellIs" dxfId="3" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="12" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31:D36 D55:D83 D127:D133 D38:D53 D7:D29 D121:D125 D85:D89 D91:D101 D103:D110 D112:D118 D135:D150 D3:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31:D36 D127:D134 D136:D142 D38:D53 D7:D29 D3:D4 D88:D92 D94:D104 D106:D116 D118:D124 D144:D159 D55:D86">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F150">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F159">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G150">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G159">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E150">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E159">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.20.30.200_VerifyThatSiteIdUsedInEmailAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.200_VerifyThatSiteIdUsedInEmailAction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-900" yWindow="30" windowWidth="8625" windowHeight="7830"/>
@@ -1195,12 +1195,12 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7711" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7721" uniqueCount="837">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3980,11 +3980,53 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4439,7 +4481,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4723,10 +4765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O159"/>
+  <dimension ref="A1:O164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4939,7 +4981,7 @@
         <v>756</v>
       </c>
       <c r="B7" s="3">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -7087,24 +7129,22 @@
         <v>84</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="F85" s="4">
+        <v>2</v>
+      </c>
+      <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
-      <c r="N85" s="17"/>
+      <c r="N85" s="16"/>
       <c r="O85" s="11"/>
     </row>
     <row r="86" spans="3:15">
@@ -7118,7 +7158,7 @@
         <v>19</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>2</v>
@@ -7132,50 +7172,48 @@
       <c r="N86" s="17"/>
       <c r="O86" s="11"/>
     </row>
-    <row r="87" spans="3:15" ht="15">
+    <row r="87" spans="3:15">
       <c r="C87" s="4">
         <v>86</v>
       </c>
-      <c r="D87" s="13" t="s">
-        <v>823</v>
-      </c>
-      <c r="E87" s="12"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
+      <c r="D87" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
-      <c r="N87" s="16"/>
+      <c r="N87" s="17"/>
       <c r="O87" s="11"/>
     </row>
-    <row r="88" spans="3:15">
+    <row r="88" spans="3:15" ht="15">
       <c r="C88" s="4">
         <v>87</v>
       </c>
-      <c r="D88" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H88" s="12" t="s">
-        <v>816</v>
-      </c>
+      <c r="D88" s="13" t="s">
+        <v>823</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
-      <c r="N88" s="17"/>
+      <c r="N88" s="16"/>
       <c r="O88" s="11"/>
     </row>
     <row r="89" spans="3:15">
@@ -7189,12 +7227,14 @@
         <v>300</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>168</v>
+        <v>303</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H89" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>816</v>
+      </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -7208,26 +7248,24 @@
         <v>89</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>309</v>
+        <v>168</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="H90" s="12" t="s">
-        <v>817</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
-      <c r="N90" s="16"/>
+      <c r="N90" s="17"/>
       <c r="O90" s="11"/>
     </row>
     <row r="91" spans="3:15">
@@ -7241,12 +7279,14 @@
         <v>304</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>95</v>
+        <v>309</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H91" s="4"/>
+        <v>804</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>817</v>
+      </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -7263,7 +7303,7 @@
         <v>805</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>95</v>
@@ -7271,8 +7311,8 @@
       <c r="G92" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -7280,16 +7320,22 @@
       <c r="N92" s="16"/>
       <c r="O92" s="11"/>
     </row>
-    <row r="93" spans="3:15" ht="15">
+    <row r="93" spans="3:15">
       <c r="C93" s="4">
         <v>92</v>
       </c>
-      <c r="D93" s="13" t="s">
-        <v>825</v>
-      </c>
-      <c r="E93" s="12"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
+      <c r="D93" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
       <c r="J93" s="4"/>
@@ -7299,29 +7345,23 @@
       <c r="N93" s="16"/>
       <c r="O93" s="11"/>
     </row>
-    <row r="94" spans="3:15">
+    <row r="94" spans="3:15" ht="15">
       <c r="C94" s="4">
         <v>93</v>
       </c>
-      <c r="D94" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
+      <c r="D94" s="13" t="s">
+        <v>825</v>
+      </c>
+      <c r="E94" s="12"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
-      <c r="N94" s="17"/>
+      <c r="N94" s="16"/>
       <c r="O94" s="11"/>
     </row>
     <row r="95" spans="3:15">
@@ -7329,24 +7369,22 @@
         <v>94</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="F95" s="4">
+        <v>2</v>
+      </c>
+      <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
-      <c r="N95" s="17"/>
+      <c r="N95" s="16"/>
       <c r="O95" s="11"/>
     </row>
     <row r="96" spans="3:15">
@@ -7356,18 +7394,16 @@
       <c r="D96" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="E96" s="12" t="s">
-        <v>300</v>
+      <c r="E96" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>303</v>
+        <v>22</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H96" s="12" t="s">
-        <v>816</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
@@ -7383,17 +7419,17 @@
       <c r="D97" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="E97" s="12" t="s">
-        <v>300</v>
+      <c r="E97" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
@@ -7406,26 +7442,26 @@
         <v>97</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>56</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
-      <c r="N98" s="16"/>
+      <c r="N98" s="17"/>
       <c r="O98" s="11"/>
     </row>
     <row r="99" spans="3:15">
@@ -7433,10 +7469,10 @@
         <v>98</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>168</v>
@@ -7445,12 +7481,12 @@
         <v>2</v>
       </c>
       <c r="H99" s="12"/>
-      <c r="I99" s="4"/>
+      <c r="I99" s="12"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
-      <c r="N99" s="16"/>
+      <c r="N99" s="17"/>
       <c r="O99" s="11"/>
     </row>
     <row r="100" spans="3:15">
@@ -7461,16 +7497,16 @@
         <v>805</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
@@ -7488,17 +7524,15 @@
         <v>805</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>249</v>
+        <v>168</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>812</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" s="12"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
@@ -7518,20 +7552,16 @@
         <v>326</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>811</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="J102" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>815</v>
+      </c>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
@@ -7549,12 +7579,14 @@
         <v>326</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H103" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>812</v>
+      </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
@@ -7571,33 +7603,45 @@
         <v>805</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H104" s="12"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="J104" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="16"/>
       <c r="O104" s="11"/>
     </row>
-    <row r="105" spans="3:15" ht="15">
+    <row r="105" spans="3:15">
       <c r="C105" s="4">
         <v>104</v>
       </c>
-      <c r="D105" s="13" t="s">
-        <v>826</v>
-      </c>
-      <c r="E105" s="12"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
+      <c r="D105" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H105" s="12"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
@@ -7615,15 +7659,15 @@
         <v>805</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H106" s="4"/>
+      <c r="H106" s="12"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
@@ -7632,29 +7676,23 @@
       <c r="N106" s="16"/>
       <c r="O106" s="11"/>
     </row>
-    <row r="107" spans="3:15">
+    <row r="107" spans="3:15" ht="15">
       <c r="C107" s="4">
         <v>106</v>
       </c>
-      <c r="D107" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H107" s="4"/>
+      <c r="D107" s="13" t="s">
+        <v>826</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="12"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
-      <c r="N107" s="17"/>
+      <c r="N107" s="16"/>
       <c r="O107" s="11"/>
     </row>
     <row r="108" spans="3:15">
@@ -7662,13 +7700,13 @@
         <v>107</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>19</v>
+        <v>805</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>2</v>
@@ -7679,7 +7717,7 @@
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
-      <c r="N108" s="17"/>
+      <c r="N108" s="16"/>
       <c r="O108" s="11"/>
     </row>
     <row r="109" spans="3:15">
@@ -7687,26 +7725,22 @@
         <v>108</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H109" s="12" t="s">
-        <v>816</v>
-      </c>
+        <v>787</v>
+      </c>
+      <c r="F109" s="4">
+        <v>2</v>
+      </c>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
-      <c r="N109" s="17"/>
+      <c r="N109" s="16"/>
       <c r="O109" s="11"/>
     </row>
     <row r="110" spans="3:15">
@@ -7716,17 +7750,17 @@
       <c r="D110" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="E110" s="12" t="s">
-        <v>300</v>
+      <c r="E110" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
@@ -7739,26 +7773,24 @@
         <v>110</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>304</v>
+        <v>793</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>309</v>
+        <v>75</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H111" s="12" t="s">
-        <v>817</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
-      <c r="N111" s="16"/>
+      <c r="N111" s="17"/>
       <c r="O111" s="11"/>
     </row>
     <row r="112" spans="3:15">
@@ -7766,24 +7798,26 @@
         <v>111</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>168</v>
+        <v>303</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H112" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>816</v>
+      </c>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
-      <c r="N112" s="16"/>
+      <c r="N112" s="17"/>
       <c r="O112" s="11"/>
     </row>
     <row r="113" spans="3:15">
@@ -7791,30 +7825,24 @@
         <v>112</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>249</v>
+        <v>168</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H113" s="12" t="s">
-        <v>813</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="J113" s="4" t="s">
-        <v>814</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
-      <c r="N113" s="16"/>
+      <c r="N113" s="17"/>
       <c r="O113" s="11"/>
     </row>
     <row r="114" spans="3:15">
@@ -7825,15 +7853,17 @@
         <v>805</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>109</v>
+        <v>309</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H114" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>817</v>
+      </c>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
@@ -7853,12 +7883,12 @@
         <v>304</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H115" s="4"/>
+      <c r="H115" s="12"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
@@ -7875,34 +7905,46 @@
         <v>805</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>95</v>
+        <v>249</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>814</v>
+      </c>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="16"/>
       <c r="O116" s="11"/>
     </row>
-    <row r="117" spans="3:15" ht="15">
+    <row r="117" spans="3:15">
       <c r="C117" s="4">
         <v>116</v>
       </c>
-      <c r="D117" s="13" t="s">
-        <v>827</v>
-      </c>
-      <c r="E117" s="12"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
+      <c r="D117" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H117" s="12"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
@@ -7916,13 +7958,13 @@
         <v>117</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>19</v>
+        <v>805</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>2</v>
@@ -7933,7 +7975,7 @@
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
-      <c r="N118" s="17"/>
+      <c r="N118" s="16"/>
       <c r="O118" s="11"/>
     </row>
     <row r="119" spans="3:15">
@@ -7941,51 +7983,43 @@
         <v>118</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>19</v>
+        <v>805</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
-      <c r="N119" s="17"/>
+      <c r="N119" s="16"/>
       <c r="O119" s="11"/>
     </row>
-    <row r="120" spans="3:15">
+    <row r="120" spans="3:15" ht="15">
       <c r="C120" s="4">
         <v>119</v>
       </c>
-      <c r="D120" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H120" s="12" t="s">
-        <v>816</v>
-      </c>
+      <c r="D120" s="13" t="s">
+        <v>827</v>
+      </c>
+      <c r="E120" s="12"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
-      <c r="N120" s="17"/>
+      <c r="N120" s="16"/>
       <c r="O120" s="11"/>
     </row>
     <row r="121" spans="3:15">
@@ -7993,24 +8027,22 @@
         <v>120</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
+        <v>787</v>
+      </c>
+      <c r="F121" s="4">
+        <v>2</v>
+      </c>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
-      <c r="N121" s="17"/>
+      <c r="N121" s="16"/>
       <c r="O121" s="11"/>
     </row>
     <row r="122" spans="3:15">
@@ -8018,26 +8050,24 @@
         <v>121</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>304</v>
+        <v>793</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>309</v>
+        <v>22</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H122" s="12" t="s">
-        <v>817</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
-      <c r="N122" s="16"/>
+      <c r="N122" s="17"/>
       <c r="O122" s="11"/>
     </row>
     <row r="123" spans="3:15">
@@ -8045,30 +8075,24 @@
         <v>122</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>304</v>
+        <v>793</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H123" s="12" t="s">
-        <v>811</v>
-      </c>
-      <c r="I123" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="J123" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
-      <c r="N123" s="16"/>
+      <c r="N123" s="17"/>
       <c r="O123" s="11"/>
     </row>
     <row r="124" spans="3:15">
@@ -8076,24 +8100,26 @@
         <v>123</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>178</v>
+        <v>303</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H124" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>816</v>
+      </c>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
-      <c r="N124" s="16"/>
+      <c r="N124" s="17"/>
       <c r="O124" s="11"/>
     </row>
     <row r="125" spans="3:15">
@@ -8101,16 +8127,16 @@
         <v>124</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>591</v>
+        <v>300</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
@@ -8129,21 +8155,23 @@
         <v>805</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>591</v>
+        <v>304</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>161</v>
+        <v>309</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H126" s="12"/>
-      <c r="I126" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="I126" s="4"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
-      <c r="N126" s="17"/>
+      <c r="N126" s="16"/>
       <c r="O126" s="11"/>
     </row>
     <row r="127" spans="3:15">
@@ -8157,14 +8185,20 @@
         <v>304</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="J127" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
@@ -8179,10 +8213,10 @@
         <v>805</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>2</v>
@@ -8201,19 +8235,19 @@
         <v>128</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>19</v>
+        <v>805</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>591</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
@@ -8226,19 +8260,19 @@
         <v>129</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>19</v>
+        <v>805</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>591</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
@@ -8254,17 +8288,15 @@
         <v>805</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>303</v>
+        <v>95</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H131" s="12" t="s">
-        <v>816</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
@@ -8284,7 +8316,7 @@
         <v>300</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>2</v>
@@ -8309,7 +8341,7 @@
         <v>787</v>
       </c>
       <c r="F133" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
@@ -8326,13 +8358,13 @@
         <v>133</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="E134" s="12" t="s">
-        <v>300</v>
+        <v>793</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>2</v>
@@ -8343,26 +8375,32 @@
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
       <c r="M134" s="4"/>
-      <c r="N134" s="16"/>
+      <c r="N134" s="17"/>
       <c r="O134" s="11"/>
     </row>
-    <row r="135" spans="3:15" ht="15">
+    <row r="135" spans="3:15">
       <c r="C135" s="4">
         <v>134</v>
       </c>
-      <c r="D135" s="13" t="s">
-        <v>828</v>
-      </c>
-      <c r="E135" s="12"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
+      <c r="D135" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
-      <c r="N135" s="16"/>
+      <c r="N135" s="17"/>
       <c r="O135" s="11"/>
     </row>
     <row r="136" spans="3:15">
@@ -8372,16 +8410,18 @@
       <c r="D136" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>19</v>
+      <c r="E136" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H136" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="H136" s="12" t="s">
+        <v>816</v>
+      </c>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
@@ -8397,16 +8437,16 @@
       <c r="D137" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="E137" s="4" t="s">
-        <v>19</v>
+      <c r="E137" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H137" s="12"/>
+      <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
@@ -8420,19 +8460,17 @@
         <v>137</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H138" s="12"/>
-      <c r="I138" s="12"/>
+        <v>787</v>
+      </c>
+      <c r="F138" s="4">
+        <v>5</v>
+      </c>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
@@ -8448,18 +8486,16 @@
         <v>805</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>389</v>
+        <v>300</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>435</v>
+        <v>95</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H139" s="12" t="s">
-        <v>797</v>
-      </c>
-      <c r="I139" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
@@ -8467,31 +8503,19 @@
       <c r="N139" s="16"/>
       <c r="O139" s="11"/>
     </row>
-    <row r="140" spans="3:15">
+    <row r="140" spans="3:15" ht="15">
       <c r="C140" s="4">
         <v>139</v>
       </c>
-      <c r="D140" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="E140" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H140" s="12" t="s">
-        <v>811</v>
-      </c>
-      <c r="I140" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="J140" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="D140" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="E140" s="12"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
@@ -8505,17 +8529,17 @@
       <c r="D141" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="E141" s="12" t="s">
-        <v>389</v>
+      <c r="E141" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>433</v>
+        <v>22</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
+      <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
@@ -8530,16 +8554,16 @@
       <c r="D142" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="E142" s="12" t="s">
-        <v>389</v>
+      <c r="E142" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H142" s="4"/>
+      <c r="H142" s="12"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
@@ -8548,18 +8572,24 @@
       <c r="N142" s="16"/>
       <c r="O142" s="11"/>
     </row>
-    <row r="143" spans="3:15" ht="15">
+    <row r="143" spans="3:15">
       <c r="C143" s="4">
         <v>142</v>
       </c>
-      <c r="D143" s="13" t="s">
-        <v>829</v>
-      </c>
-      <c r="E143" s="12"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
+      <c r="D143" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
@@ -8574,17 +8604,19 @@
       <c r="D144" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="E144" s="4" t="s">
-        <v>19</v>
+      <c r="E144" s="12" t="s">
+        <v>389</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>22</v>
+        <v>435</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H144" s="12"/>
-      <c r="I144" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H144" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="I144" s="12"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
@@ -8599,18 +8631,24 @@
       <c r="D145" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="E145" s="4" t="s">
-        <v>19</v>
+      <c r="E145" s="12" t="s">
+        <v>389</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H145" s="12"/>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H145" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="J145" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
@@ -8628,7 +8666,7 @@
         <v>389</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>2</v>
@@ -8653,15 +8691,13 @@
         <v>389</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>435</v>
+        <v>95</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="H147" s="12" t="s">
-        <v>797</v>
-      </c>
-      <c r="I147" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
@@ -8669,22 +8705,16 @@
       <c r="N147" s="16"/>
       <c r="O147" s="11"/>
     </row>
-    <row r="148" spans="3:15">
+    <row r="148" spans="3:15" ht="15">
       <c r="C148" s="4">
         <v>147</v>
       </c>
-      <c r="D148" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="E148" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D148" s="13" t="s">
+        <v>829</v>
+      </c>
+      <c r="E148" s="12"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
@@ -8695,12 +8725,22 @@
       <c r="O148" s="11"/>
     </row>
     <row r="149" spans="3:15">
-      <c r="C149" s="4"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
+      <c r="C149" s="4">
+        <v>148</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H149" s="12"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
@@ -8710,12 +8750,22 @@
       <c r="O149" s="11"/>
     </row>
     <row r="150" spans="3:15">
-      <c r="C150" s="4"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
+      <c r="C150" s="4">
+        <v>149</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H150" s="12"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
@@ -8725,13 +8775,23 @@
       <c r="O150" s="11"/>
     </row>
     <row r="151" spans="3:15">
-      <c r="C151" s="4"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
+      <c r="C151" s="4">
+        <v>150</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
@@ -8740,13 +8800,25 @@
       <c r="O151" s="11"/>
     </row>
     <row r="152" spans="3:15">
-      <c r="C152" s="4"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
+      <c r="C152" s="4">
+        <v>151</v>
+      </c>
+      <c r="D152" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="H152" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="I152" s="12"/>
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
@@ -8755,11 +8827,21 @@
       <c r="O152" s="11"/>
     </row>
     <row r="153" spans="3:15">
-      <c r="C153" s="4"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
+      <c r="C153" s="4">
+        <v>152</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
@@ -8845,21 +8927,96 @@
       <c r="O158" s="11"/>
     </row>
     <row r="159" spans="3:15">
+      <c r="C159" s="4"/>
       <c r="D159" s="14"/>
       <c r="E159" s="12"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
-      <c r="H159" s="12"/>
-      <c r="I159" s="12"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
       <c r="L159" s="4"/>
       <c r="M159" s="4"/>
       <c r="N159" s="16"/>
+      <c r="O159" s="11"/>
+    </row>
+    <row r="160" spans="3:15">
+      <c r="C160" s="4"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+      <c r="K160" s="4"/>
+      <c r="L160" s="4"/>
+      <c r="M160" s="4"/>
+      <c r="N160" s="16"/>
+      <c r="O160" s="11"/>
+    </row>
+    <row r="161" spans="3:15">
+      <c r="C161" s="4"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+      <c r="K161" s="4"/>
+      <c r="L161" s="4"/>
+      <c r="M161" s="4"/>
+      <c r="N161" s="16"/>
+      <c r="O161" s="11"/>
+    </row>
+    <row r="162" spans="3:15">
+      <c r="C162" s="4"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
+      <c r="K162" s="4"/>
+      <c r="L162" s="4"/>
+      <c r="M162" s="4"/>
+      <c r="N162" s="16"/>
+      <c r="O162" s="11"/>
+    </row>
+    <row r="163" spans="3:15">
+      <c r="C163" s="4"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
+      <c r="J163" s="4"/>
+      <c r="K163" s="4"/>
+      <c r="L163" s="4"/>
+      <c r="M163" s="4"/>
+      <c r="N163" s="16"/>
+      <c r="O163" s="11"/>
+    </row>
+    <row r="164" spans="3:15">
+      <c r="D164" s="14"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="4"/>
+      <c r="K164" s="4"/>
+      <c r="L164" s="4"/>
+      <c r="M164" s="4"/>
+      <c r="N164" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N159">
+  <conditionalFormatting sqref="N2:N164">
     <cfRule type="cellIs" dxfId="3" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -8868,16 +9025,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31:D36 D127:D134 D136:D142 D38:D53 D7:D29 D3:D4 D88:D92 D94:D104 D106:D116 D118:D124 D144:D159 D55:D86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31:D36 D108:D119 D141:D147 D38:D53 D7:D29 D3:D4 D89:D93 D95:D106 D55:D87 D121:D128 D149:D164 D131:D139">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F159">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F164">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G159">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G164">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E159">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E164">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
